--- a/code/sim/0037-StudyTerrenceMaterialOnIdentification/parType3_N10000_loopn1000_resultados_final.xlsx
+++ b/code/sim/0037-StudyTerrenceMaterialOnIdentification/parType3_N10000_loopn1000_resultados_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\IME-USP\RLanguage\repository\rcode\code\sim\0037-StudyTerrenceMaterialOnIdentification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC1E566-DFF0-4354-90F8-D3E15775B7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55CEA37-44F6-4432-8217-BE21B081F23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
@@ -683,7 +683,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -741,7 +741,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1031,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1089,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1321,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1379,10 +1379,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
@@ -1411,7 +1411,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +1492,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -1519,7 +1519,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>16</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>17</v>
       </c>
@@ -1654,7 +1654,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>18</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -1708,7 +1708,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>20</v>
       </c>
@@ -1787,7 +1787,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B33" t="s">
@@ -1847,7 +1847,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>9</v>
       </c>
@@ -1905,7 +1905,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>10</v>
       </c>
@@ -1963,7 +1963,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2"/>
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2"/>
       <c r="B37" t="s">
         <v>12</v>
       </c>
@@ -2079,7 +2079,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2"/>
       <c r="B38" t="s">
         <v>13</v>
       </c>
@@ -2137,7 +2137,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2"/>
       <c r="B39" t="s">
         <v>14</v>
       </c>
@@ -2195,7 +2195,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="2"/>
       <c r="B40" t="s">
         <v>15</v>
       </c>
@@ -2253,7 +2253,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="2"/>
       <c r="B41" t="s">
         <v>16</v>
       </c>
@@ -2311,7 +2311,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="2"/>
       <c r="B42" t="s">
         <v>17</v>
       </c>
@@ -2369,7 +2369,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
       <c r="B43" t="s">
         <v>18</v>
       </c>
@@ -2427,7 +2427,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="2"/>
       <c r="B44" t="s">
         <v>19</v>
       </c>
@@ -2485,7 +2485,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="2"/>
       <c r="B45" t="s">
         <v>20</v>
       </c>
@@ -2543,358 +2543,358 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.15493503455364671</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.18380368975799927</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.1793784690980933</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.17084246066786268</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.17895503036668231</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.17439389902255453</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.17896644154756122</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="2"/>
       <c r="B48" t="s">
         <v>9</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>9.8973791057365118E-2</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.12734021741764107</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>0.11983653607681978</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.12409444326585105</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.11895161405834331</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>0.12002888920069653</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.11527191919978497</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
       <c r="B49" t="s">
         <v>10</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>6.6086436813921456E-2</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>7.1749717609438726E-2</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>7.4412075414288487E-2</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>7.4582044807097889E-2</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>7.4219286418997596E-2</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>7.6104099214725246E-2</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>7.4490263071383525E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
       <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>4.1058614603458096E-2</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>4.5606323395566938E-2</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>4.4389300631504064E-2</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>4.47734643050074E-2</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>4.5226168954178893E-2</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>4.5516247563178902E-2</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>4.7123360955581679E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
       <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>4.6107617929145771E-2</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>4.8033111751003318E-2</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>4.6829201153901379E-2</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>4.8248624973113968E-2</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>4.7892598055131706E-2</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>4.7571033351739685E-2</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>4.689641622731261E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
       <c r="B52" t="s">
         <v>13</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>2.8816267218911559E-2</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>2.8049132645888635E-2</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>2.81841305721349E-2</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>2.8418850847719192E-2</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>2.8545480581216684E-2</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>2.8578514527181759E-2</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>2.8287543022730066E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
       <c r="B53" t="s">
         <v>14</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>2.0197466983049656E-2</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>2.1622631844469071E-2</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>2.0691227388056045E-2</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>2.218770743374587E-2</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>2.0606133108355518E-2</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>2.1212579917083006E-2</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>2.0036094461892678E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
       <c r="B54" t="s">
         <v>15</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>2.185203378763205E-2</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>2.1315425461845224E-2</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>2.1865879708250085E-2</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>2.1735679569931724E-2</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>2.2019690306401999E-2</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>2.2065066451960446E-2</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>2.1492664383647206E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
       <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>4.799391355901015E-2</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>4.7256751705764759E-2</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>4.9324657630891285E-2</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>4.9143920887856719E-2</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>4.6985392698564485E-2</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>5.0133591404694672E-2</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>4.8097322315763594E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
       <c r="B56" t="s">
         <v>17</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>5.2400800049792223E-2</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>5.8013203987245195E-2</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>5.4246835204516425E-2</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>5.691246813413945E-2</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>5.4406082912051776E-2</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>5.4662912664032268E-2</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>5.7368600956233307E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
       <c r="B57" t="s">
         <v>18</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>6.5537187667932637E-2</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>7.6033545761964472E-2</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>7.4757263000401059E-2</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>7.3092882809351709E-2</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>7.4385306350333649E-2</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>7.6433958197278801E-2</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>7.3294467213320877E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
       <c r="B58" t="s">
         <v>19</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>8.8847243952418206E-2</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>0.11453102161205467</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>0.10649976331794982</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>0.11410890903300676</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>0.1171282302801353</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>0.11274433496208054</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0.11176838324348509</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
       <c r="B59" t="s">
         <v>20</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>0.16103543950372448</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>0.18512294270687535</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>0.17698730188742715</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>0.17240555664859242</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>0.17714157863335966</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>0.17241984553932643</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>0.17657622300167147</v>
       </c>
     </row>
@@ -2905,92 +2905,8 @@
     <mergeCell ref="A33:A45"/>
     <mergeCell ref="A47:A59"/>
   </mergeCells>
-  <conditionalFormatting sqref="D17:D29">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E29">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F29">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G29">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H29">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I29">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J29">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L3:L15">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3004,7 +2920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M15">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3018,7 +2934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N15">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3032,7 +2948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O15">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3046,7 +2962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P15">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3060,7 +2976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q15">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3074,7 +2990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R15">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3087,92 +3003,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D59">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E59">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F59">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47:G59">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H59">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:I59">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:J59">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L33:L45">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3186,7 +3018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:M45">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3200,7 +3032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33:N45">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3214,7 +3046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33:O45">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3228,7 +3060,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33:P45">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3242,7 +3074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q33:Q45">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3256,7 +3088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:R45">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3267,6 +3099,246 @@
           <x14:id>{83264ECB-934C-45E3-B4EB-90D24263252A}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G29">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F29">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E29">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D29">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I29">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J29">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G59">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:F59">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E59">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:D59">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H59">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I59">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:J59">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H59">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G59">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:F59">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E59">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I59">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:J59">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
